--- a/data/georgia_census/shida-qartli/xashuri/population_total.xlsx
+++ b/data/georgia_census/shida-qartli/xashuri/population_total.xlsx
@@ -1368,13 +1368,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC5237F5-E5CD-493E-94CA-F4BF78B89973}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D80713C-D64A-48FD-8D02-C293DC2CEC68}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A34C7F9-6AE4-49E6-9257-B9002A8F2EF8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A2ED3E-3186-4323-990C-B4953DFB8789}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB26682-5747-4431-AFCC-51EA3FFA55F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8F9FBD-B6B4-4FF0-B273-78812AFDF43B}"/>
 </file>